--- a/tests/test_files/usdm_excel_2.xlsx
+++ b/tests/test_files/usdm_excel_2.xlsx
@@ -11239,7 +11239,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pharmaceutical Company</t>
+          <t>Clinical Study Sponsor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>||||</t>
+          <t xml:space="preserve"> | | | | | </t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>National Library of Medicine|8600 Rockville Pike||Bethesda|MD|20894|USA</t>
+          <t>National Library of Medicine, 8600 Rockville Pike| |Bethesda|MD|20894|USA</t>
         </is>
       </c>
     </row>

--- a/tests/test_files/usdm_excel_2.xlsx
+++ b/tests/test_files/usdm_excel_2.xlsx
@@ -11249,7 +11249,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> | | | | | </t>
+          <t>|||||</t>
         </is>
       </c>
     </row>
@@ -11281,7 +11281,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>National Library of Medicine, 8600 Rockville Pike| |Bethesda|MD|20894|USA</t>
+          <t>National Library of Medicine, 8600 Rockville Pike||Bethesda|MD|20894|USA</t>
         </is>
       </c>
     </row>

--- a/tests/test_files/usdm_excel_2.xlsx
+++ b/tests/test_files/usdm_excel_2.xlsx
@@ -9675,17 +9675,26 @@
           <t>studyType</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>studyPhase</t>
+          <t>Epoch/Arms</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Phase III Trial</t>
+          <t>EPOCH-1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EPOCH-2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EPOCH-3</t>
         </is>
       </c>
     </row>
@@ -9695,7 +9704,6 @@
           <t>spare</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">

--- a/tests/test_files/usdm_excel_2.xlsx
+++ b/tests/test_files/usdm_excel_2.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,15 +648,6 @@
           <t>scopes</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9010,7 +9001,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-2 to 0</t>
+          <t>2 Days</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -9053,7 +9044,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 Days</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9096,7 +9087,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1 Days</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9139,7 +9130,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Days</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9478,7 +9469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9526,6 +9517,38 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DEFAULT_ARM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default arm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Default Arm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Active Comparator Arm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Data collected from subjects</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Data Generated Within Study</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9537,7 +9560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9669,13 +9692,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>studyType</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -9701,75 +9717,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>spare</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Epoch/Arms</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EPOCH-1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>EPOCH-2</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>EPOCH-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Epoch/Arms</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>EPOCH-1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EPOCH-2</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EPOCH-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Epoch/Arms</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>EPOCH-1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>EPOCH-2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EPOCH-3</t>
-        </is>
-      </c>
+          <t>DEFAULT_ARM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10910,7 +10863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10920,6 +10873,8 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10966,6 +10921,53 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>includesHealthySubjects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>POP1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Default Population</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Default Population</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18..100 years</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BOTH</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
